--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2135406.045499812</v>
+        <v>-2137403.718512658</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>361.2308869585275</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>68.14366600798847</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>47.14167849255917</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>55.90301252244922</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>52.20496332083577</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>51.05287849019435</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,13 +1060,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>125.8092116959086</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>160.2491677474086</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>292.5218012947493</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1190,13 +1190,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>119.1253892356865</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>89.78463339148489</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>171.3532861040705</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111316</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>28.73448241073158</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>86.19053366520818</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>247.0935753752548</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>207.6951870029948</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952497999</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>114.1337065797939</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>175.9070269162016</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>26.97444673954876</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>238.2336684417116</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2479,10 +2479,10 @@
         <v>99.11493096898715</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857224</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692903</v>
       </c>
       <c r="F25" t="n">
         <v>77.28915789329056</v>
@@ -2731,7 +2731,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463189</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U28" t="n">
-        <v>218.1054622689372</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
         <v>184.0057531941873</v>
@@ -2998,7 +2998,7 @@
         <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539622</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789532</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3439,10 +3439,10 @@
         <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789555</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3478,7 +3478,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539629</v>
       </c>
       <c r="T40" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689375</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -3952,7 +3952,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898712</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>41.83246227415209</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>2054.523217580367</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1696.257518973616</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1310.469266375372</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>899.4833615857644</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2397.110927996231</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2143.349142634322</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1812.286255290752</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>1812.286255290752</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>1812.286255290752</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.14692331494</v>
+        <v>2423.485734520778</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="U4" t="n">
-        <v>671.6612947898188</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="V4" t="n">
-        <v>671.6612947898188</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="W4" t="n">
-        <v>671.6612947898188</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="X4" t="n">
-        <v>443.6717438918015</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1299.526533804879</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C5" t="n">
-        <v>1299.526533804879</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,13 +4571,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2644.41680483556</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2390.655019473651</v>
+        <v>2645.580526886713</v>
       </c>
       <c r="V5" t="n">
-        <v>2059.592132130081</v>
+        <v>2314.517639543142</v>
       </c>
       <c r="W5" t="n">
-        <v>2059.592132130081</v>
+        <v>2314.517639543142</v>
       </c>
       <c r="X5" t="n">
-        <v>1686.126373869001</v>
+        <v>1941.051881282062</v>
       </c>
       <c r="Y5" t="n">
-        <v>1686.126373869001</v>
+        <v>1550.91254930625</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
@@ -4647,19 +4647,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084169</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C7" t="n">
-        <v>500.1394333084169</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>350.0227938960811</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>837.1179892781315</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781315</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1597.183587603333</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X8" t="n">
-        <v>1223.717829342253</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y8" t="n">
-        <v>1223.717829342253</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="9">
@@ -4863,34 +4863,34 @@
         <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>555.0448568285852</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C10" t="n">
-        <v>555.0448568285852</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D10" t="n">
-        <v>404.9282174162495</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E10" t="n">
-        <v>404.9282174162495</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F10" t="n">
-        <v>404.9282174162495</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>637.4374353261467</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>637.4374353261467</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>637.4374353261467</v>
       </c>
       <c r="V10" t="n">
-        <v>555.0448568285852</v>
+        <v>637.4374353261467</v>
       </c>
       <c r="W10" t="n">
-        <v>555.0448568285852</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X10" t="n">
-        <v>555.0448568285852</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y10" t="n">
-        <v>555.0448568285852</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805453</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,37 +5051,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5106,34 +5106,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>237.776412546148</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C13" t="n">
-        <v>237.776412546148</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>237.776412546148</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>237.776412546148</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>237.776412546148</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5230,19 +5230,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>465.7659634441654</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X13" t="n">
-        <v>237.776412546148</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y13" t="n">
-        <v>237.776412546148</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>2871.326567796375</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>3118.091695702839</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>3425.411828982801</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>3755.274456646834</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>4034.814521865531</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>4555.115143601278</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>843.8929204411535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>674.9567375132466</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>1025.541385271393</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W16" t="n">
-        <v>1025.541385271393</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X16" t="n">
-        <v>1025.541385271393</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>1025.541385271393</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5540,10 +5540,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.607977814708</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211719</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011334</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1966.019627967825</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>415.509052552801</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C19" t="n">
-        <v>415.509052552801</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1072.634584732458</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1072.634584732458</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>817.9500965265709</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W19" t="n">
-        <v>817.9500965265709</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X19" t="n">
-        <v>817.9500965265709</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="Y19" t="n">
-        <v>597.1575173830407</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="20">
@@ -5753,25 +5753,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1271.749344574921</v>
+        <v>1258.27620142486</v>
       </c>
       <c r="V22" t="n">
-        <v>1017.064856369034</v>
+        <v>1003.591713218973</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,13 +5999,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.546326320615</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.010087623274</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6127,7 +6127,7 @@
         <v>559.3441472229676</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506724</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E25" t="n">
         <v>398.9545963083204</v>
@@ -6227,7 +6227,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506724</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083204</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103134</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982979</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6464,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2361.490124716568</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103128</v>
@@ -6619,13 +6619,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6646,7 +6646,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T31" t="n">
         <v>1710.200584771663</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="32">
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,7 +6898,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010315</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,25 +6920,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6956,31 +6956,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>329.1202010073252</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>943.0172707642139</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1711.385417156675</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N36" t="n">
-        <v>2041.248044820708</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7114,13 +7114,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7345,10 +7345,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7403,19 +7403,19 @@
         <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>143.7578250841098</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>292.8275092861696</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>539.5926371926337</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>846.9127704725952</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7567,10 +7567,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2279.445761859783</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7783,34 +7783,34 @@
         <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7822,13 +7822,13 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,16 +7837,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010318</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>213.2603911806626</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>223.6742649934471</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>148.2747143566561</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>38.8600230194989</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>9.900512684485989</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7515527292971</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>165.9802687929765</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>62.91120742583809</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>41.75994765618381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>223.6742649934481</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>5.100663089359948</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,16 +11148,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>52.497333613053</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>52.55328306226744</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>148.3046543496693</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.8997372951011</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,31 +22702,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>141.6678575263693</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,22 +22747,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>230.3788617195285</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>137.759086052646</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>139.519121723829</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>5.044067948573172</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>18.01446838604235</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>107.4138544785953</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>49.80262847283555</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>194.5731143188405</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>48.00368395686573</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1277900.689534897</v>
+        <v>1277900.689534898</v>
       </c>
     </row>
     <row r="3">
@@ -26317,13 +26317,13 @@
         <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="E2" t="n">
+        <v>19551.45298688543</v>
+      </c>
+      <c r="F2" t="n">
         <v>19551.45298688544</v>
-      </c>
-      <c r="F2" t="n">
-        <v>19551.45298688543</v>
       </c>
       <c r="G2" t="n">
         <v>19551.45298688543</v>
@@ -26332,19 +26332,19 @@
         <v>19551.45298688544</v>
       </c>
       <c r="I2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="J2" t="n">
         <v>20526.04424660711</v>
-      </c>
-      <c r="J2" t="n">
-        <v>20526.04424660713</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="N2" t="n">
         <v>20526.04424660708</v>
@@ -26353,7 +26353,7 @@
         <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>54505.51210371254</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99193.6337742231</v>
+        <v>99193.63377422313</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,13 +26424,13 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007559</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007504</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007534</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
@@ -26448,16 +26448,16 @@
         <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732795</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26500,10 +26500,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-753628.6667043568</v>
+        <v>-753842.0786942355</v>
       </c>
       <c r="C6" t="n">
         <v>-210250.0825327232</v>
@@ -26528,16 +26528,16 @@
         <v>-210250.0825327232</v>
       </c>
       <c r="E6" t="n">
-        <v>-605512.6410947348</v>
+        <v>-605610.1002207068</v>
       </c>
       <c r="F6" t="n">
-        <v>-80352.60461783869</v>
+        <v>-80450.06374381082</v>
       </c>
       <c r="G6" t="n">
-        <v>-80352.60461783872</v>
+        <v>-80450.06374381084</v>
       </c>
       <c r="H6" t="n">
-        <v>-80352.60461783866</v>
+        <v>-80450.06374381082</v>
       </c>
       <c r="I6" t="n">
         <v>-162030.0925744588</v>
@@ -26555,7 +26555,7 @@
         <v>-242325.5957045834</v>
       </c>
       <c r="N6" t="n">
-        <v>-162030.0925744589</v>
+        <v>-162030.0925744588</v>
       </c>
       <c r="O6" t="n">
         <v>-107524.5804707463</v>
@@ -26713,7 +26713,7 @@
         <v>68.13189012964068</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
@@ -26722,10 +26722,10 @@
         <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.34123142231186</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3.753190496561984</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>165.0038604574597</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>164.243357036822</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>200.1712890180949</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>20.6247509506606</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>126.0327064945691</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>72.7510904762583</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>230.1155794817265</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>122.360905558534</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>80.78435721975754</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,7 +32318,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,10 +32327,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>546.4549645786756</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35726,10 +35726,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>374.2497035813863</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35744,10 +35744,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>355.3681292881807</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>349.2844000699651</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36449,16 +36449,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>216.9939276160106</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>744.1759297797634</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36923,16 +36923,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>253.9933015780506</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>373.3355844763043</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37385,7 +37385,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>192.335386244123</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
@@ -37397,7 +37397,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315247</v>
@@ -37406,7 +37406,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>472.9319699494724</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,13 +37713,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>47.0108420442666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>259.5907485445777</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
